--- a/data/trans_orig/P50A_1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P50A_1-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>28371</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18281</v>
+        <v>17906</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41661</v>
+        <v>41937</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02819308303187108</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01816667494482936</v>
+        <v>0.01779332259480248</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04139921220406206</v>
+        <v>0.0416739069070325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -763,19 +763,19 @@
         <v>23398</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14566</v>
+        <v>14423</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35225</v>
+        <v>34265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02205287032142103</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01372880349478512</v>
+        <v>0.01359358288376671</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03320003087584307</v>
+        <v>0.03229519040228326</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -784,19 +784,19 @@
         <v>51769</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38732</v>
+        <v>39426</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69584</v>
+        <v>70118</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02504178423522569</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0187357304356029</v>
+        <v>0.01907108601397526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03365923967669236</v>
+        <v>0.0339177495886757</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>26993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18285</v>
+        <v>18708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39123</v>
+        <v>38961</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02682341894470277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01816993083962414</v>
+        <v>0.01859078609261659</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0388771110009409</v>
+        <v>0.0387168604231867</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -834,19 +834,19 @@
         <v>20309</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12217</v>
+        <v>13144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30547</v>
+        <v>29813</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01914178748276355</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01151437839070613</v>
+        <v>0.01238893309099952</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02879132413634324</v>
+        <v>0.02809934536788056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -855,19 +855,19 @@
         <v>47302</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35393</v>
+        <v>35425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62724</v>
+        <v>63259</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02288102848955058</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01712042144750021</v>
+        <v>0.01713594569458484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03034121400831461</v>
+        <v>0.03059983922998246</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>20682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13132</v>
+        <v>12499</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31204</v>
+        <v>31559</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02055226104032164</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01304956388248422</v>
+        <v>0.01242008196632146</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03100803869572849</v>
+        <v>0.03136124731775529</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -905,19 +905,19 @@
         <v>13185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7132</v>
+        <v>7028</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21366</v>
+        <v>21436</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01242699999540441</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006722165667645674</v>
+        <v>0.006624090945698906</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02013781245756375</v>
+        <v>0.02020353811184461</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -926,19 +926,19 @@
         <v>33867</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23581</v>
+        <v>22510</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45238</v>
+        <v>46116</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01638218965017259</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01140645041642663</v>
+        <v>0.01088867544757872</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02188257803251651</v>
+        <v>0.02230751522089882</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>930268</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>911658</v>
+        <v>912906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>947199</v>
+        <v>947039</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9244312369831045</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9059383119975681</v>
+        <v>0.9071777900036728</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9412561529044449</v>
+        <v>0.9410973438289419</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>922</v>
@@ -976,19 +976,19 @@
         <v>1004094</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>987225</v>
+        <v>989017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1018438</v>
+        <v>1017792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9463783422004109</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.930478798952051</v>
+        <v>0.9321681840071303</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9598975664830269</v>
+        <v>0.9592883649668723</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1792</v>
@@ -997,19 +997,19 @@
         <v>1934363</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1909500</v>
+        <v>1908732</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1953685</v>
+        <v>1955383</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9356949976250512</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9236681487458565</v>
+        <v>0.9232966944742124</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9450412379058082</v>
+        <v>0.9458628775755512</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>19612</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12053</v>
+        <v>12836</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29029</v>
+        <v>30674</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02040164385356026</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01253815951107303</v>
+        <v>0.01335299572060141</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03019716099083284</v>
+        <v>0.0319087003124712</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1122,19 +1122,19 @@
         <v>6084</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2058</v>
+        <v>2686</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13192</v>
+        <v>13086</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005856334524546399</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001980757949076223</v>
+        <v>0.002585641464742111</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01269811362740223</v>
+        <v>0.01259543945093521</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -1143,19 +1143,19 @@
         <v>25697</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17657</v>
+        <v>16826</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36730</v>
+        <v>36997</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01284687519265975</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008827383067997359</v>
+        <v>0.008412145505174542</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01836292235109835</v>
+        <v>0.01849659612161645</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>25525</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16774</v>
+        <v>16101</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37499</v>
+        <v>36042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02655168233929535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01744925702971605</v>
+        <v>0.01674864848239377</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03900805741708824</v>
+        <v>0.0374920415610762</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1193,19 +1193,19 @@
         <v>16394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10061</v>
+        <v>9326</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26721</v>
+        <v>25818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01578014554984524</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009684610133358517</v>
+        <v>0.008976572074061695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02572035004727829</v>
+        <v>0.02485112105370861</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1214,19 +1214,19 @@
         <v>41919</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30298</v>
+        <v>30464</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55984</v>
+        <v>54878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02095699427003916</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01514744584248256</v>
+        <v>0.0152305060822446</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02798897117139585</v>
+        <v>0.02743591413446787</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>37406</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26416</v>
+        <v>26850</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53358</v>
+        <v>52671</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03891079732323373</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02747925107801493</v>
+        <v>0.02793062722846359</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0555047716978966</v>
+        <v>0.0547900587266863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1264,19 +1264,19 @@
         <v>19903</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12681</v>
+        <v>12303</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30184</v>
+        <v>31294</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01915802949555633</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01220596761591836</v>
+        <v>0.01184195582787386</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02905404871393017</v>
+        <v>0.03012194083865116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -1285,19 +1285,19 @@
         <v>57309</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43681</v>
+        <v>42853</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>75000</v>
+        <v>74645</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02865129799083291</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02183806299824828</v>
+        <v>0.02142416784230325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0374957764437583</v>
+        <v>0.03731833274167856</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>878774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>857153</v>
+        <v>857723</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>894158</v>
+        <v>895043</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9141358764839107</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.891644759598499</v>
+        <v>0.892237276268442</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9301384579522097</v>
+        <v>0.9310589871923731</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>928</v>
@@ -1335,19 +1335,19 @@
         <v>996526</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>980796</v>
+        <v>983179</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1007330</v>
+        <v>1008548</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.959205490430052</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9440647335061181</v>
+        <v>0.9463584888337454</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9696051044783147</v>
+        <v>0.9707768951276032</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1760</v>
@@ -1356,19 +1356,19 @@
         <v>1875302</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1852239</v>
+        <v>1853896</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1895102</v>
+        <v>1897502</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9375448325464681</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9260147268201474</v>
+        <v>0.9268433773957675</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9474441720940278</v>
+        <v>0.9486435581109367</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>16385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10192</v>
+        <v>9966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27041</v>
+        <v>25153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01873962430090697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01165649642976552</v>
+        <v>0.01139775926920824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03092638912923747</v>
+        <v>0.02876653555808025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1481,19 +1481,19 @@
         <v>8779</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3906</v>
+        <v>4077</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16396</v>
+        <v>17590</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01033188229753784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004596145979817947</v>
+        <v>0.004798369113361701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0192956967315303</v>
+        <v>0.0207007281691625</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -1502,19 +1502,19 @@
         <v>25165</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16223</v>
+        <v>16276</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35492</v>
+        <v>36452</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01459582715503108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009409687255966819</v>
+        <v>0.009440307367508333</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02058580312167369</v>
+        <v>0.02114265429669909</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>12235</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6839</v>
+        <v>6968</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21113</v>
+        <v>20400</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01399333934738599</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.007821520144029077</v>
+        <v>0.00796926937523584</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02414665736998558</v>
+        <v>0.02333073886077844</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -1552,19 +1552,19 @@
         <v>8206</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4031</v>
+        <v>3090</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>15630</v>
+        <v>15283</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.009656564091349447</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.004744365409748728</v>
+        <v>0.003636832799454064</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01839359898165313</v>
+        <v>0.01798608501994389</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>20</v>
@@ -1573,19 +1573,19 @@
         <v>20441</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13392</v>
+        <v>12290</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>31343</v>
+        <v>30071</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01185593825669265</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007767403917918518</v>
+        <v>0.007128261593878129</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01817922090804894</v>
+        <v>0.017441691152965</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>28932</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19735</v>
+        <v>19489</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40607</v>
+        <v>40753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03308894961418485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02257037874713643</v>
+        <v>0.02228929855882923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04644086486136542</v>
+        <v>0.0466087012009184</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1623,19 +1623,19 @@
         <v>17342</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11151</v>
+        <v>10998</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27836</v>
+        <v>27668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02040853982235757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01312250387446586</v>
+        <v>0.01294313927957593</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03275882814859419</v>
+        <v>0.03256076963056266</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1644,19 +1644,19 @@
         <v>46274</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33102</v>
+        <v>34660</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60747</v>
+        <v>61991</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02683934705943771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01919921324487967</v>
+        <v>0.02010308186508447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03523399232318983</v>
+        <v>0.03595558776829076</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>816820</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>801304</v>
+        <v>802226</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>830938</v>
+        <v>831165</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9341780867375222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.916432651567585</v>
+        <v>0.9174872976774577</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9503248619081808</v>
+        <v>0.9505836490559687</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>763</v>
@@ -1694,19 +1694,19 @@
         <v>815408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>801219</v>
+        <v>802654</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>825204</v>
+        <v>825808</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9596030137887551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9429051289275258</v>
+        <v>0.9445938173709748</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9711310316680397</v>
+        <v>0.971842373475125</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1527</v>
@@ -1715,19 +1715,19 @@
         <v>1632228</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1612744</v>
+        <v>1610269</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1650925</v>
+        <v>1648907</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9467088875288385</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9354078095461176</v>
+        <v>0.9339721224635719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9575528879492227</v>
+        <v>0.9563827412085268</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>8511</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3738</v>
+        <v>3905</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15418</v>
+        <v>15704</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01709351127708227</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007506676262615561</v>
+        <v>0.007843244775101354</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03096484190767385</v>
+        <v>0.03153881869224955</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1840,19 +1840,19 @@
         <v>3025</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8387</v>
+        <v>8276</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006791949625722663</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002166845357513151</v>
+        <v>0.002178416391732516</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01882879280076766</v>
+        <v>0.01858005171741279</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1861,19 +1861,19 @@
         <v>11537</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6635</v>
+        <v>6494</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19181</v>
+        <v>20283</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01222922347541181</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007033705556877805</v>
+        <v>0.006883561469020586</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02033214185965932</v>
+        <v>0.02150026130247541</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>8207</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3757</v>
+        <v>3791</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18545</v>
+        <v>17770</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01648334721280937</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00754494033128691</v>
+        <v>0.007613462454157469</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03724535071851181</v>
+        <v>0.03568890811877444</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1911,19 +1911,19 @@
         <v>6091</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2155</v>
+        <v>2063</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12131</v>
+        <v>12598</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01367299245291636</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004837163953661146</v>
+        <v>0.004631173495280452</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02723343251389141</v>
+        <v>0.02828059531366723</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -1932,19 +1932,19 @@
         <v>14298</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8406</v>
+        <v>7524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25620</v>
+        <v>24880</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01515632759776782</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008911123696348836</v>
+        <v>0.007975726309005669</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02715850579607338</v>
+        <v>0.02637373537510621</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>10076</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4811</v>
+        <v>4524</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20068</v>
+        <v>19456</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0202365120437626</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009662267442533616</v>
+        <v>0.009084963362905863</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04030385668164179</v>
+        <v>0.03907387580995137</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1982,19 +1982,19 @@
         <v>3849</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8684</v>
+        <v>9681</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.008641054412151674</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00217524365781388</v>
+        <v>0.00216325335891078</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01949437145725381</v>
+        <v>0.02173240327062494</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -2003,19 +2003,19 @@
         <v>13925</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7484</v>
+        <v>7072</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23187</v>
+        <v>23404</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0147612603274573</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007932989329734328</v>
+        <v>0.007496673354765518</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02457948446587779</v>
+        <v>0.02480941906049663</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>471124</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>456582</v>
+        <v>459038</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>480223</v>
+        <v>480029</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9461866294663458</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9169812354260054</v>
+        <v>0.9219124884405081</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9644606467276675</v>
+        <v>0.9640713118384097</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>392</v>
@@ -2053,19 +2053,19 @@
         <v>432483</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>424475</v>
+        <v>424795</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>438437</v>
+        <v>438477</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9708940035092093</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9529164377479645</v>
+        <v>0.9536356956840758</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9842616665578534</v>
+        <v>0.9843498071728018</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>823</v>
@@ -2074,19 +2074,19 @@
         <v>903608</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>889637</v>
+        <v>889636</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>914646</v>
+        <v>916203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9578531885993631</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9430438844983221</v>
+        <v>0.9430422937053062</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9695542499344647</v>
+        <v>0.9712040931767257</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>72880</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57944</v>
+        <v>57341</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>92504</v>
+        <v>92262</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02182090622232669</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01734901287449708</v>
+        <v>0.01716829825136017</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02769640465174475</v>
+        <v>0.02762406826908602</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -2199,19 +2199,19 @@
         <v>41287</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29429</v>
+        <v>29550</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56747</v>
+        <v>54963</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.012160785322981</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008668104137389726</v>
+        <v>0.008703664716459681</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0167144288845695</v>
+        <v>0.01618900398465713</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>109</v>
@@ -2220,19 +2220,19 @@
         <v>114167</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>95706</v>
+        <v>93377</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>137624</v>
+        <v>135891</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0169512916701177</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01421025346761425</v>
+        <v>0.01386445240961298</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02043411806424196</v>
+        <v>0.0201768886587158</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>72960</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58073</v>
+        <v>56232</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91253</v>
+        <v>92963</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02184485659809982</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0173875690290076</v>
+        <v>0.01683619049285031</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02732182629555093</v>
+        <v>0.02783386334061547</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>50</v>
@@ -2270,19 +2270,19 @@
         <v>50999</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38591</v>
+        <v>37743</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66387</v>
+        <v>66267</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01502157900539167</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01136673180583572</v>
+        <v>0.01111683605943437</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01955398475491205</v>
+        <v>0.0195184863452444</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>121</v>
@@ -2291,19 +2291,19 @@
         <v>123960</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104063</v>
+        <v>104042</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>144452</v>
+        <v>148117</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01840527937071091</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01545100718103714</v>
+        <v>0.01544795004043889</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02144791597581337</v>
+        <v>0.02199215944341543</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>97096</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77564</v>
+        <v>79055</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119590</v>
+        <v>120570</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02907128816710286</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02322319920732267</v>
+        <v>0.02366957252812462</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03580628712169617</v>
+        <v>0.03609948688839938</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -2341,19 +2341,19 @@
         <v>54279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>41680</v>
+        <v>40062</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71872</v>
+        <v>70391</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01598764702196442</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01227652335202974</v>
+        <v>0.01179994567610044</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02116939793987588</v>
+        <v>0.02073318444004817</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>145</v>
@@ -2362,19 +2362,19 @@
         <v>151375</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>127610</v>
+        <v>128962</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>177674</v>
+        <v>177122</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02247589562697825</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01894733561294411</v>
+        <v>0.01914802017813547</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02638066724795092</v>
+        <v>0.02629879540618792</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>3096988</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3066823</v>
+        <v>3064027</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3125551</v>
+        <v>3126392</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9272629490124706</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9182315105078833</v>
+        <v>0.9173941886479841</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9358151562035696</v>
+        <v>0.9360668099890036</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3005</v>
@@ -2412,19 +2412,19 @@
         <v>3248512</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3222404</v>
+        <v>3221764</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3270832</v>
+        <v>3270916</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.956829988649663</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9491399818857005</v>
+        <v>0.9489514891931899</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.963404109148034</v>
+        <v>0.9634289154718042</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5902</v>
@@ -2433,19 +2433,19 @@
         <v>6345500</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6307927</v>
+        <v>6308544</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6381438</v>
+        <v>6381830</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9421675333321932</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9365887804796376</v>
+        <v>0.9366803281130809</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9475035650216307</v>
+        <v>0.9475617689335373</v>
       </c>
     </row>
     <row r="28">
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10857</v>
+        <v>10835</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002493915512277134</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009888950829243357</v>
+        <v>0.009868326667833419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2801,16 +2801,16 @@
         <v>1036</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9964</v>
+        <v>9761</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003354622885295594</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0008611279336995104</v>
+        <v>0.0008607485527223075</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008281570943412536</v>
+        <v>0.00811264533785038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2819,19 +2819,19 @@
         <v>6774</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2743</v>
+        <v>2841</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15137</v>
+        <v>14631</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002943947958484991</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001192022893013404</v>
+        <v>0.001234715638864855</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006578165649124979</v>
+        <v>0.006358166943789164</v>
       </c>
     </row>
     <row r="5">
@@ -2848,19 +2848,19 @@
         <v>5215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1995</v>
+        <v>1850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11672</v>
+        <v>11122</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004749734122916769</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001817112688847103</v>
+        <v>0.001684993675437059</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01063052796971064</v>
+        <v>0.01012965478799001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -2869,19 +2869,19 @@
         <v>2849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7549</v>
+        <v>7669</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00236769904042009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0007649061684151318</v>
+        <v>0.0007715518849023745</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.006274473626445655</v>
+        <v>0.006374199678185777</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -2890,19 +2890,19 @@
         <v>8064</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3898</v>
+        <v>3726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16419</v>
+        <v>15525</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003504254987110733</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001694121807140934</v>
+        <v>0.001619025871943337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.007135518584688488</v>
+        <v>0.006746988525309099</v>
       </c>
     </row>
     <row r="6">
@@ -2919,19 +2919,19 @@
         <v>19010</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11152</v>
+        <v>11680</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29316</v>
+        <v>30343</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01731475051634367</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01015679403618572</v>
+        <v>0.01063797863903717</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02670092672030513</v>
+        <v>0.02763664834528101</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -2940,19 +2940,19 @@
         <v>9236</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4340</v>
+        <v>4847</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17430</v>
+        <v>16707</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007676054598486674</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003607335563766857</v>
+        <v>0.004028891178119548</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01448665210669405</v>
+        <v>0.0138857210688196</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -2961,19 +2961,19 @@
         <v>28246</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18511</v>
+        <v>18936</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40367</v>
+        <v>41088</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01227502849449707</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008044252497269885</v>
+        <v>0.008229123027096817</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01754269853351667</v>
+        <v>0.01785584973209937</v>
       </c>
     </row>
     <row r="7">
@@ -2990,19 +2990,19 @@
         <v>1070972</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1058892</v>
+        <v>1057541</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1079887</v>
+        <v>1079439</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9754415998484625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9644386598434225</v>
+        <v>0.9632079388002864</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9835605943890378</v>
+        <v>0.9831531097222911</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1123</v>
@@ -3011,19 +3011,19 @@
         <v>1187038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1178231</v>
+        <v>1178144</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1193213</v>
+        <v>1193408</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9866016234757976</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9792821600731613</v>
+        <v>0.9792094374067574</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9917339459186366</v>
+        <v>0.9918966350698247</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2134</v>
@@ -3032,19 +3032,19 @@
         <v>2258009</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2243572</v>
+        <v>2244245</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2269600</v>
+        <v>2270179</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9812767685599072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9750029250856548</v>
+        <v>0.9752952334942705</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.986313817151828</v>
+        <v>0.9865655475074552</v>
       </c>
     </row>
     <row r="8">
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5383</v>
+        <v>5403</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001207226348678982</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006039599664355804</v>
+        <v>0.006062738436440637</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3157,19 +3157,19 @@
         <v>2936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7088</v>
+        <v>8744</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003016599559204934</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0009322693823489075</v>
+        <v>0.0009379726456239568</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.007283329680982711</v>
+        <v>0.00898541775717634</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3178,19 +3178,19 @@
         <v>4011</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9226</v>
+        <v>9742</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002151675484524967</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0005405922198165807</v>
+        <v>0.0005443650212689656</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004948542318116245</v>
+        <v>0.005225534571277093</v>
       </c>
     </row>
     <row r="10">
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5234</v>
+        <v>5232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001174325295120119</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.005873220834937898</v>
+        <v>0.005870514502387826</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6075</v>
+        <v>6941</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0005613558404348224</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.003258419835514688</v>
+        <v>0.003722739789987328</v>
       </c>
     </row>
     <row r="11">
@@ -3270,19 +3270,19 @@
         <v>8243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3219</v>
+        <v>3159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16842</v>
+        <v>16210</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009249430946248987</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00361144650129598</v>
+        <v>0.003544116851788135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01889831481603542</v>
+        <v>0.01818827461491574</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -3291,19 +3291,19 @@
         <v>6734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2938</v>
+        <v>2907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13705</v>
+        <v>13068</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006920248320332219</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00301921765741262</v>
+        <v>0.00298693742180351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01408311264653679</v>
+        <v>0.01342894886544906</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -3312,19 +3312,19 @@
         <v>14978</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8435</v>
+        <v>8703</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25278</v>
+        <v>25850</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008033653844279441</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004524370804977355</v>
+        <v>0.004667983496435775</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0135583097916194</v>
+        <v>0.01386538273686898</v>
       </c>
     </row>
     <row r="12">
@@ -3341,19 +3341,19 @@
         <v>880841</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>871570</v>
+        <v>871942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>886111</v>
+        <v>886404</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9883690174099519</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9779661074320696</v>
+        <v>0.9783836046667242</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9942814862902308</v>
+        <v>0.9946105899367266</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>911</v>
@@ -3362,19 +3362,19 @@
         <v>963479</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>956335</v>
+        <v>955465</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>968190</v>
+        <v>968205</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9900631521204628</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9827224942506763</v>
+        <v>0.9818281433979662</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9949046217220989</v>
+        <v>0.994919940501491</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1765</v>
@@ -3383,19 +3383,19 @@
         <v>1844320</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1833505</v>
+        <v>1832415</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1851869</v>
+        <v>1851615</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9892533148307607</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9834521528548068</v>
+        <v>0.9828673211846072</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9933023921522076</v>
+        <v>0.9931660951813907</v>
       </c>
     </row>
     <row r="13">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8275</v>
+        <v>5827</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001960314685776812</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01118358052026099</v>
+        <v>0.007874996843852176</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6376</v>
+        <v>7915</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009377068121259881</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004122023979888651</v>
+        <v>0.005116527668643824</v>
       </c>
     </row>
     <row r="15">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4994</v>
+        <v>5041</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001241740906926314</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.006188143752801173</v>
+        <v>0.006247221940991711</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4993</v>
+        <v>5561</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0006477602997469641</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.003227888447694467</v>
+        <v>0.003594908613804214</v>
       </c>
     </row>
     <row r="16">
@@ -3613,19 +3613,19 @@
         <v>10083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4981</v>
+        <v>4828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18898</v>
+        <v>19413</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01249447986461686</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006172189946243542</v>
+        <v>0.005982316401152864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02341808823707922</v>
+        <v>0.02405657768451131</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7395</v>
+        <v>7032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002757587967016184</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009993562151842168</v>
+        <v>0.009503225790503972</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3655,19 +3655,19 @@
         <v>12123</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6272</v>
+        <v>6407</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21568</v>
+        <v>22053</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007836885893832307</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004054371893386078</v>
+        <v>0.004141982083316947</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01394270565607205</v>
+        <v>0.01425610048103128</v>
       </c>
     </row>
     <row r="17">
@@ -3684,19 +3684,19 @@
         <v>795877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>786068</v>
+        <v>786787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>801663</v>
+        <v>801769</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9862637792284569</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9741076656694461</v>
+        <v>0.974998836826103</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9934335400694314</v>
+        <v>0.993565289037101</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>697</v>
@@ -3705,19 +3705,19 @@
         <v>736473</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>729843</v>
+        <v>730609</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>739044</v>
+        <v>739041</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.995282097347207</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9863220581238153</v>
+        <v>0.9873568277252507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9987568014254989</v>
+        <v>0.9987523983674577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1457</v>
@@ -3726,19 +3726,19 @@
         <v>1532350</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1522256</v>
+        <v>1522251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1538692</v>
+        <v>1538789</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9905776469942947</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9840523939615945</v>
+        <v>0.9840488856847641</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9946773542387662</v>
+        <v>0.994740043260426</v>
       </c>
     </row>
     <row r="18">
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5577</v>
+        <v>5510</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002209986658878024</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01125431105526066</v>
+        <v>0.01111932284388693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7277</v>
+        <v>6119</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004006967478599041</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01525923365024719</v>
+        <v>0.01283039563153079</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -3872,19 +3872,19 @@
         <v>3006</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8309</v>
+        <v>8147</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003091248901911393</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0009321328320197182</v>
+        <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008544955656690029</v>
+        <v>0.008378016605581554</v>
       </c>
     </row>
     <row r="20">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5168</v>
+        <v>5189</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001879972483038335</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01042801105469053</v>
+        <v>0.01047126020378807</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4656</v>
+        <v>4951</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0009580100730552459</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004787749090106932</v>
+        <v>0.005091512902640235</v>
       </c>
     </row>
     <row r="21">
@@ -3964,19 +3964,19 @@
         <v>4564</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12411</v>
+        <v>11112</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009209800887801456</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002144383244087192</v>
+        <v>0.002143449403854423</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02504620016880671</v>
+        <v>0.0224244694042673</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7423</v>
+        <v>6881</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002884869372016679</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0155648656332128</v>
+        <v>0.0144280895247645</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -4006,19 +4006,19 @@
         <v>5940</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2106</v>
+        <v>2131</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13256</v>
+        <v>13690</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006107974049439155</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002165736541070656</v>
+        <v>0.002191643338237732</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01363217782041267</v>
+        <v>0.01407845356189658</v>
       </c>
     </row>
     <row r="22">
@@ -4035,19 +4035,19 @@
         <v>488951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>480787</v>
+        <v>481589</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>493076</v>
+        <v>493098</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9867002399702822</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9702254285599408</v>
+        <v>0.9718425323208778</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9950231180810295</v>
+        <v>0.9950672316243054</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>440</v>
@@ -4056,19 +4056,19 @@
         <v>473609</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>467565</v>
+        <v>467416</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>475988</v>
+        <v>475996</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9931081631493843</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9804345112127157</v>
+        <v>0.9801224513156158</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9980955838345629</v>
+        <v>0.9981136000271055</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>894</v>
@@ -4077,19 +4077,19 @@
         <v>962561</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>954472</v>
+        <v>954539</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>967380</v>
+        <v>967933</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9898427669755943</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9815247981410516</v>
+        <v>0.9815941252861603</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9947982300442761</v>
+        <v>0.9953670262478261</v>
       </c>
     </row>
     <row r="23">
@@ -4181,19 +4181,19 @@
         <v>4909</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11870</v>
+        <v>12633</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001491408291596096</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0003275385549423605</v>
+        <v>0.0003279076692915197</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003606067271386112</v>
+        <v>0.003837940429057609</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -4202,19 +4202,19 @@
         <v>10333</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5482</v>
+        <v>5222</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19489</v>
+        <v>17758</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003045299765555689</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001615594480751523</v>
+        <v>0.001539095330267263</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.005743687923106737</v>
+        <v>0.005233528037355308</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -4223,19 +4223,19 @@
         <v>15242</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8607</v>
+        <v>8489</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25696</v>
+        <v>25385</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002280153276749051</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001287617716571637</v>
+        <v>0.001269953922093513</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.003843874391166726</v>
+        <v>0.003797374291874722</v>
       </c>
     </row>
     <row r="25">
@@ -4252,19 +4252,19 @@
         <v>8195</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3843</v>
+        <v>3830</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15972</v>
+        <v>15687</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002489669663056817</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001167492576928735</v>
+        <v>0.001163647842205822</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.004852301528987722</v>
+        <v>0.004765838314757986</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4273,19 +4273,19 @@
         <v>2849</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8470</v>
+        <v>8317</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0008395447293476585</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0002723227227020726</v>
+        <v>0.0002737778046531894</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.00249609444067257</v>
+        <v>0.002451199022615659</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -4294,19 +4294,19 @@
         <v>11044</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5743</v>
+        <v>5893</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19638</v>
+        <v>19493</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001652077213294269</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0008591633389951304</v>
+        <v>0.0008816161537894509</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.002937724693905182</v>
+        <v>0.002916025987216791</v>
       </c>
     </row>
     <row r="26">
@@ -4323,19 +4323,19 @@
         <v>41900</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30457</v>
+        <v>29769</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57580</v>
+        <v>57151</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01272920741261253</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009252925223673486</v>
+        <v>0.009043755347457506</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0174926810378289</v>
+        <v>0.01736232909530598</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -4344,19 +4344,19 @@
         <v>19386</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12154</v>
+        <v>11362</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29297</v>
+        <v>29612</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00571331618530693</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00358197555414437</v>
+        <v>0.003348598156441112</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008634094534632892</v>
+        <v>0.008726902873558455</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>57</v>
@@ -4365,19 +4365,19 @@
         <v>61286</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>46195</v>
+        <v>47236</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>80294</v>
+        <v>78208</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00916798765264118</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00691047571200017</v>
+        <v>0.007066117678834607</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0120114664070817</v>
+        <v>0.01169941528629493</v>
       </c>
     </row>
     <row r="27">
@@ -4394,19 +4394,19 @@
         <v>3236643</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3220339</v>
+        <v>3220514</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3251072</v>
+        <v>3250592</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9832897146327345</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9783367783790688</v>
+        <v>0.9783897675202186</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9876732189452415</v>
+        <v>0.9875276049524373</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3171</v>
@@ -4415,19 +4415,19 @@
         <v>3360599</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3347162</v>
+        <v>3347358</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3370411</v>
+        <v>3370077</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9904018393197898</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9864419884917486</v>
+        <v>0.9864995969011416</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9932937222114383</v>
+        <v>0.9931950382343313</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6250</v>
@@ -4436,19 +4436,19 @@
         <v>6597241</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6575276</v>
+        <v>6576022</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6613703</v>
+        <v>6613505</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9868997818573155</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9836139672976194</v>
+        <v>0.9837255745579896</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9893622893680468</v>
+        <v>0.9893327044175783</v>
       </c>
     </row>
     <row r="28">
